--- a/data-export/export_202204/sum_tagged_prv_detail.xlsx
+++ b/data-export/export_202204/sum_tagged_prv_detail.xlsx
@@ -621,7 +621,7 @@
         <v>561658711.4</v>
       </c>
       <c r="H8">
-        <v>998606513.6</v>
+        <v>998606513.6000001</v>
       </c>
       <c r="I8">
         <v>1560265225</v>
@@ -860,13 +860,13 @@
         <v>0.4</v>
       </c>
       <c r="G16">
-        <v>467476583.51</v>
+        <v>467476583.5100001</v>
       </c>
       <c r="H16">
-        <v>458218221.52</v>
+        <v>458218221.5200001</v>
       </c>
       <c r="I16">
-        <v>925694805.03</v>
+        <v>925694805.0299999</v>
       </c>
     </row>
     <row r="17">
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3223414193.57</v>
+        <v>3223414193.569979</v>
       </c>
       <c r="H28">
-        <v>9672808263.870001</v>
+        <v>9672808263.870176</v>
       </c>
       <c r="I28">
-        <v>12896222457.44</v>
+        <v>12896222457.43991</v>
       </c>
     </row>
     <row r="29">
@@ -1360,10 +1360,10 @@
         <v>35840924.57</v>
       </c>
       <c r="H29">
-        <v>107555281.89</v>
+        <v>107555281.8899998</v>
       </c>
       <c r="I29">
-        <v>143396206.46</v>
+        <v>143396206.4600001</v>
       </c>
     </row>
     <row r="30">
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2169513102.98</v>
+        <v>2169513102.979989</v>
       </c>
       <c r="H30">
-        <v>6510540691.67</v>
+        <v>6510540691.670097</v>
       </c>
       <c r="I30">
-        <v>8680053794.65</v>
+        <v>8680053794.649925</v>
       </c>
     </row>
     <row r="31">
@@ -1425,13 +1425,13 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1366489361.91</v>
+        <v>1366489361.910001</v>
       </c>
       <c r="H31">
-        <v>4100404216.54</v>
+        <v>4100404216.540011</v>
       </c>
       <c r="I31">
-        <v>5466893578.45</v>
+        <v>5466893578.450015</v>
       </c>
     </row>
     <row r="32">
@@ -1464,13 +1464,13 @@
         <v>0.4</v>
       </c>
       <c r="G32">
-        <v>26912239.58</v>
+        <v>26912239.58000001</v>
       </c>
       <c r="H32">
-        <v>80738535.95999999</v>
+        <v>80738535.96000105</v>
       </c>
       <c r="I32">
-        <v>107650775.54</v>
+        <v>107650775.5400003</v>
       </c>
     </row>
     <row r="33">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>3390334.91</v>
+        <v>3390334.910000002</v>
       </c>
       <c r="H33">
         <v>10170985.28</v>
@@ -1648,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>8493640.48</v>
+        <v>8493640.479999995</v>
       </c>
       <c r="H38">
         <v>25480620.42</v>
       </c>
       <c r="I38">
-        <v>33974260.9</v>
+        <v>33974260.90000002</v>
       </c>
     </row>
     <row r="39">
@@ -1726,13 +1726,13 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>1187571143.56</v>
+        <v>1187571143.559998</v>
       </c>
       <c r="H40">
-        <v>3563563261.26</v>
+        <v>3563563261.259962</v>
       </c>
       <c r="I40">
-        <v>4751134404.82</v>
+        <v>4751134404.820004</v>
       </c>
     </row>
     <row r="41">
@@ -1765,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>12578009.57</v>
+        <v>12578009.56999999</v>
       </c>
       <c r="H41">
-        <v>37738356.82</v>
+        <v>37738356.82000005</v>
       </c>
       <c r="I41">
-        <v>50316366.39</v>
+        <v>50316366.38999997</v>
       </c>
     </row>
     <row r="42">
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>32653049.93</v>
+        <v>32653049.92999999</v>
       </c>
       <c r="H42">
-        <v>97959317.86</v>
+        <v>97959317.85999998</v>
       </c>
       <c r="I42">
         <v>130612367.79</v>
@@ -1823,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>3548937.92</v>
+        <v>3548937.919999998</v>
       </c>
       <c r="H43">
-        <v>10648941.65</v>
+        <v>10648941.64999999</v>
       </c>
       <c r="I43">
-        <v>14197879.57</v>
+        <v>14197879.57000001</v>
       </c>
     </row>
     <row r="44">
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>181981153.85</v>
+        <v>181981153.8500005</v>
       </c>
       <c r="H44">
-        <v>178367237.6</v>
+        <v>178367237.5999995</v>
       </c>
       <c r="I44">
         <v>360348391.45</v>
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1591182708.54</v>
+        <v>1591182708.539999</v>
       </c>
       <c r="H45">
         <v>1560227897.37</v>
       </c>
       <c r="I45">
-        <v>3151410605.91</v>
+        <v>3151410605.909998</v>
       </c>
     </row>
     <row r="46">
@@ -1920,10 +1920,10 @@
         <v>0.4</v>
       </c>
       <c r="G46">
-        <v>2946181.48</v>
+        <v>2946181.479999999</v>
       </c>
       <c r="H46">
-        <v>8839234.58</v>
+        <v>8839234.579999998</v>
       </c>
       <c r="I46">
         <v>11785416.06</v>
@@ -1959,10 +1959,10 @@
         <v>0.4</v>
       </c>
       <c r="G47">
-        <v>1611769.91</v>
+        <v>1611769.909999999</v>
       </c>
       <c r="H47">
-        <v>4835383.36</v>
+        <v>4835383.360000004</v>
       </c>
       <c r="I47">
         <v>6447153.27</v>
